--- a/src/constants/stocks/indices_constituents_list.xlsx
+++ b/src/constants/stocks/indices_constituents_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/australien/Documents/IESEG/Master 2/Thesis/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/australien/Documents/IESEG/Master 2/Thesis/Code/src/constants/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED542CB-2751-9948-81B3-BA9811573E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E227F91-F1E6-274D-A76B-699471391E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="1" activeTab="9" xr2:uid="{88EAC37D-1567-D245-820F-9EDB88DFE4B0}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="613">
   <si>
     <t>FR0000120404</t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>liquidity_provider_program</t>
+  </si>
+  <si>
+    <t>VHOXhistory_FR0000125684_20170125 is empty</t>
   </si>
 </sst>
 </file>
@@ -3161,8 +3164,8 @@
   </sheetPr>
   <dimension ref="A1:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3262,7 +3265,7 @@
       </c>
       <c r="U2">
         <f>COUNTIF(K:K, "=TRUE")</f>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -7677,9 +7680,15 @@
       <c r="H128">
         <v>255</v>
       </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>612</v>
+      </c>
       <c r="K128" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/constants/stocks/indices_constituents_list.xlsx
+++ b/src/constants/stocks/indices_constituents_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/australien/Documents/IESEG/Master 2/Thesis/Code/src/constants/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E227F91-F1E6-274D-A76B-699471391E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E72378-230E-3F4F-B300-94F5526F1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="1" activeTab="9" xr2:uid="{88EAC37D-1567-D245-820F-9EDB88DFE4B0}"/>
   </bookViews>
@@ -24,8 +24,11 @@
     <sheet name="SBF tickers add_rem 2017" sheetId="11" r:id="rId9"/>
     <sheet name="All Tickers SBF 2017" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'All Tickers SBF 2017'!$A$1:$K$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'All Tickers SBF 2017'!$A$1:$O$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CAC_beg_2017!$A$1:$B$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAC_changes!$A$1:$H$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAC_current!$A$1:$D$41</definedName>
@@ -1930,23 +1933,27 @@
     <t>included</t>
   </si>
   <si>
-    <t>market_cap</t>
-  </si>
-  <si>
-    <t>euronext_category</t>
-  </si>
-  <si>
-    <t>liquidity_provider_program</t>
-  </si>
-  <si>
-    <t>VHOXhistory_FR0000125684_20170125 is empty</t>
+    <t>trades_min_num_rows</t>
+  </si>
+  <si>
+    <t>trades_avg_num_rows</t>
+  </si>
+  <si>
+    <t>orders_min_num_rows</t>
+  </si>
+  <si>
+    <t>orders_avg_num_rows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1967,6 +1974,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1998,17 +2012,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2053,6 +2070,1810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="isins"/>
+      <sheetName val="dates"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>isin</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>trades_min_num_rows</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>trades_avg_num_rows</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>orders_min_num_rows</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>orders_avg_num_rows</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>FR0000031775</v>
+          </cell>
+          <cell r="B2">
+            <v>71</v>
+          </cell>
+          <cell r="C2">
+            <v>610.51372549019607</v>
+          </cell>
+          <cell r="D2">
+            <v>2324</v>
+          </cell>
+          <cell r="E2">
+            <v>9101.1803921568626</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>FR0004254035</v>
+          </cell>
+          <cell r="B3">
+            <v>93</v>
+          </cell>
+          <cell r="C3">
+            <v>555.43921568627457</v>
+          </cell>
+          <cell r="D3">
+            <v>761</v>
+          </cell>
+          <cell r="E3">
+            <v>7066.3346456692916</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>FR0000125684</v>
+          </cell>
+          <cell r="B4">
+            <v>131</v>
+          </cell>
+          <cell r="C4">
+            <v>2547.0196078431368</v>
+          </cell>
+          <cell r="D4">
+            <v>4636</v>
+          </cell>
+          <cell r="E4">
+            <v>39846.311023622053</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>FR0000054900</v>
+          </cell>
+          <cell r="B5">
+            <v>211</v>
+          </cell>
+          <cell r="C5">
+            <v>1108.8470588235291</v>
+          </cell>
+          <cell r="D5">
+            <v>5783</v>
+          </cell>
+          <cell r="E5">
+            <v>12871.164705882349</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>FR0010417345</v>
+          </cell>
+          <cell r="B6">
+            <v>238</v>
+          </cell>
+          <cell r="C6">
+            <v>1403.2078431372549</v>
+          </cell>
+          <cell r="D6">
+            <v>6</v>
+          </cell>
+          <cell r="E6">
+            <v>18579.627450980392</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FR0000053225</v>
+          </cell>
+          <cell r="B7">
+            <v>263</v>
+          </cell>
+          <cell r="C7">
+            <v>770.37647058823529</v>
+          </cell>
+          <cell r="D7">
+            <v>3738</v>
+          </cell>
+          <cell r="E7">
+            <v>9884.3450980392154</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FR0011981968</v>
+          </cell>
+          <cell r="B8">
+            <v>269</v>
+          </cell>
+          <cell r="C8">
+            <v>932.72549019607845</v>
+          </cell>
+          <cell r="D8">
+            <v>3949</v>
+          </cell>
+          <cell r="E8">
+            <v>11291.015748031499</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>FR0000071946</v>
+          </cell>
+          <cell r="B9">
+            <v>271</v>
+          </cell>
+          <cell r="C9">
+            <v>857.60784313725492</v>
+          </cell>
+          <cell r="D9">
+            <v>4628</v>
+          </cell>
+          <cell r="E9">
+            <v>12439.431372549019</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FR0004125920</v>
+          </cell>
+          <cell r="B10">
+            <v>274</v>
+          </cell>
+          <cell r="C10">
+            <v>2331.262745098039</v>
+          </cell>
+          <cell r="D10">
+            <v>2</v>
+          </cell>
+          <cell r="E10">
+            <v>22116.70196078431</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FR0012789949</v>
+          </cell>
+          <cell r="B11">
+            <v>302</v>
+          </cell>
+          <cell r="C11">
+            <v>1109.882352941177</v>
+          </cell>
+          <cell r="D11">
+            <v>3672</v>
+          </cell>
+          <cell r="E11">
+            <v>11782.527559055119</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>NL0006294274</v>
+          </cell>
+          <cell r="B12">
+            <v>311</v>
+          </cell>
+          <cell r="C12">
+            <v>1557.0705882352941</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12">
+            <v>19869.690196078431</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>FR0010040865</v>
+          </cell>
+          <cell r="B13">
+            <v>312</v>
+          </cell>
+          <cell r="C13">
+            <v>1354.607843137255</v>
+          </cell>
+          <cell r="D13">
+            <v>5415</v>
+          </cell>
+          <cell r="E13">
+            <v>13768.20866141732</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>FR0000050809</v>
+          </cell>
+          <cell r="B14">
+            <v>313</v>
+          </cell>
+          <cell r="C14">
+            <v>979.42352941176466</v>
+          </cell>
+          <cell r="D14">
+            <v>3617</v>
+          </cell>
+          <cell r="E14">
+            <v>11854.16078431373</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FR0011726835</v>
+          </cell>
+          <cell r="B15">
+            <v>315</v>
+          </cell>
+          <cell r="C15">
+            <v>983.32941176470592</v>
+          </cell>
+          <cell r="D15">
+            <v>1</v>
+          </cell>
+          <cell r="E15">
+            <v>14091.52941176471</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>FR0000120966</v>
+          </cell>
+          <cell r="B16">
+            <v>319</v>
+          </cell>
+          <cell r="C16">
+            <v>1687.9921568627451</v>
+          </cell>
+          <cell r="D16">
+            <v>3</v>
+          </cell>
+          <cell r="E16">
+            <v>20086.098039215689</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>FR0012435121</v>
+          </cell>
+          <cell r="B17">
+            <v>323</v>
+          </cell>
+          <cell r="C17">
+            <v>1707.8</v>
+          </cell>
+          <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17">
+            <v>15885.52156862745</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>FR0010241638</v>
+          </cell>
+          <cell r="B18">
+            <v>347</v>
+          </cell>
+          <cell r="C18">
+            <v>858.2627450980392</v>
+          </cell>
+          <cell r="D18">
+            <v>1</v>
+          </cell>
+          <cell r="E18">
+            <v>7852.81568627451</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>FR0000120560</v>
+          </cell>
+          <cell r="B19">
+            <v>360</v>
+          </cell>
+          <cell r="C19">
+            <v>1168.4901960784309</v>
+          </cell>
+          <cell r="D19">
+            <v>6288</v>
+          </cell>
+          <cell r="E19">
+            <v>15983.956862745101</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>FR0000120859</v>
+          </cell>
+          <cell r="B20">
+            <v>367</v>
+          </cell>
+          <cell r="C20">
+            <v>1575.6313725490199</v>
+          </cell>
+          <cell r="D20">
+            <v>8673</v>
+          </cell>
+          <cell r="E20">
+            <v>23601.944881889769</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>FR0010112524</v>
+          </cell>
+          <cell r="B21">
+            <v>368</v>
+          </cell>
+          <cell r="C21">
+            <v>1475.8627450980391</v>
+          </cell>
+          <cell r="D21">
+            <v>3</v>
+          </cell>
+          <cell r="E21">
+            <v>15349.10588235294</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>FR0000130395</v>
+          </cell>
+          <cell r="B22">
+            <v>393</v>
+          </cell>
+          <cell r="C22">
+            <v>1878.0117647058819</v>
+          </cell>
+          <cell r="D22">
+            <v>1</v>
+          </cell>
+          <cell r="E22">
+            <v>58589.184313725491</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>FR0000121709</v>
+          </cell>
+          <cell r="B23">
+            <v>400</v>
+          </cell>
+          <cell r="C23">
+            <v>1321.0274509803919</v>
+          </cell>
+          <cell r="D23">
+            <v>2</v>
+          </cell>
+          <cell r="E23">
+            <v>16734.407843137251</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>FR0013154002</v>
+          </cell>
+          <cell r="B24">
+            <v>402</v>
+          </cell>
+          <cell r="C24">
+            <v>1187.0705882352941</v>
+          </cell>
+          <cell r="D24">
+            <v>3</v>
+          </cell>
+          <cell r="E24">
+            <v>14767.12156862745</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>FR0012757854</v>
+          </cell>
+          <cell r="B25">
+            <v>406</v>
+          </cell>
+          <cell r="C25">
+            <v>1682.7137254901961</v>
+          </cell>
+          <cell r="D25">
+            <v>3275</v>
+          </cell>
+          <cell r="E25">
+            <v>15199.05905511811</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>FR0000121725</v>
+          </cell>
+          <cell r="B26">
+            <v>425</v>
+          </cell>
+          <cell r="C26">
+            <v>1181.4666666666669</v>
+          </cell>
+          <cell r="D26">
+            <v>1</v>
+          </cell>
+          <cell r="E26">
+            <v>20921.639215686271</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>FR0000034639</v>
+          </cell>
+          <cell r="B27">
+            <v>442</v>
+          </cell>
+          <cell r="C27">
+            <v>1283.262745098039</v>
+          </cell>
+          <cell r="D27">
+            <v>4671</v>
+          </cell>
+          <cell r="E27">
+            <v>12563.85490196078</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>FR0004163111</v>
+          </cell>
+          <cell r="B28">
+            <v>455</v>
+          </cell>
+          <cell r="C28">
+            <v>1743.3372549019609</v>
+          </cell>
+          <cell r="D28">
+            <v>4</v>
+          </cell>
+          <cell r="E28">
+            <v>13987.6</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>FR0000124570</v>
+          </cell>
+          <cell r="B29">
+            <v>471</v>
+          </cell>
+          <cell r="C29">
+            <v>1959.7490196078429</v>
+          </cell>
+          <cell r="D29">
+            <v>1</v>
+          </cell>
+          <cell r="E29">
+            <v>26584.19215686274</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>FR0000064578</v>
+          </cell>
+          <cell r="B30">
+            <v>480</v>
+          </cell>
+          <cell r="C30">
+            <v>1606.725490196078</v>
+          </cell>
+          <cell r="D30">
+            <v>7391</v>
+          </cell>
+          <cell r="E30">
+            <v>22847.294117647059</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>FR0010386334</v>
+          </cell>
+          <cell r="B31">
+            <v>483</v>
+          </cell>
+          <cell r="C31">
+            <v>1286.223529411765</v>
+          </cell>
+          <cell r="D31">
+            <v>5</v>
+          </cell>
+          <cell r="E31">
+            <v>13889.76862745098</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>FR0000077919</v>
+          </cell>
+          <cell r="B32">
+            <v>487</v>
+          </cell>
+          <cell r="C32">
+            <v>1622.3607843137249</v>
+          </cell>
+          <cell r="D32">
+            <v>7512</v>
+          </cell>
+          <cell r="E32">
+            <v>25869.333333333328</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>FR0000073272</v>
+          </cell>
+          <cell r="B33">
+            <v>498</v>
+          </cell>
+          <cell r="C33">
+            <v>8362.6470588235297</v>
+          </cell>
+          <cell r="D33">
+            <v>20709</v>
+          </cell>
+          <cell r="E33">
+            <v>173305.2862745098</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>FR0000121121</v>
+          </cell>
+          <cell r="B34">
+            <v>503</v>
+          </cell>
+          <cell r="C34">
+            <v>1714.294117647059</v>
+          </cell>
+          <cell r="D34">
+            <v>6911</v>
+          </cell>
+          <cell r="E34">
+            <v>22959.13779527559</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>FR0000035081</v>
+          </cell>
+          <cell r="B35">
+            <v>513</v>
+          </cell>
+          <cell r="C35">
+            <v>1275.4941176470591</v>
+          </cell>
+          <cell r="D35">
+            <v>6544</v>
+          </cell>
+          <cell r="E35">
+            <v>17766.098039215689</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>FR0000130213</v>
+          </cell>
+          <cell r="B36">
+            <v>518</v>
+          </cell>
+          <cell r="C36">
+            <v>2062.4196078431369</v>
+          </cell>
+          <cell r="D36">
+            <v>17581</v>
+          </cell>
+          <cell r="E36">
+            <v>55547.578740157478</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>FR0010340141</v>
+          </cell>
+          <cell r="B37">
+            <v>524</v>
+          </cell>
+          <cell r="C37">
+            <v>1554.6392156862751</v>
+          </cell>
+          <cell r="D37">
+            <v>5271</v>
+          </cell>
+          <cell r="E37">
+            <v>14798.00787401575</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>FR0000120222</v>
+          </cell>
+          <cell r="B38">
+            <v>552</v>
+          </cell>
+          <cell r="C38">
+            <v>1685.9411764705881</v>
+          </cell>
+          <cell r="D38">
+            <v>7572</v>
+          </cell>
+          <cell r="E38">
+            <v>21775.643137254901</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>FR0000054470</v>
+          </cell>
+          <cell r="B39">
+            <v>553</v>
+          </cell>
+          <cell r="C39">
+            <v>4384.4980392156858</v>
+          </cell>
+          <cell r="D39">
+            <v>11289</v>
+          </cell>
+          <cell r="E39">
+            <v>91364.847058823536</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>FR0000039299</v>
+          </cell>
+          <cell r="B40">
+            <v>568</v>
+          </cell>
+          <cell r="C40">
+            <v>1829.5803921568629</v>
+          </cell>
+          <cell r="D40">
+            <v>8239</v>
+          </cell>
+          <cell r="E40">
+            <v>27969.925490196081</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>FR0011950732</v>
+          </cell>
+          <cell r="B41">
+            <v>585</v>
+          </cell>
+          <cell r="C41">
+            <v>1962.2716535433069</v>
+          </cell>
+          <cell r="D41">
+            <v>3</v>
+          </cell>
+          <cell r="E41">
+            <v>20452.19215686274</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>FR0000121204</v>
+          </cell>
+          <cell r="B42">
+            <v>599</v>
+          </cell>
+          <cell r="C42">
+            <v>1308.1372549019609</v>
+          </cell>
+          <cell r="D42">
+            <v>11</v>
+          </cell>
+          <cell r="E42">
+            <v>13522.603921568631</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>FR0000044448</v>
+          </cell>
+          <cell r="B43">
+            <v>652</v>
+          </cell>
+          <cell r="C43">
+            <v>2748.2392156862738</v>
+          </cell>
+          <cell r="D43">
+            <v>26137</v>
+          </cell>
+          <cell r="E43">
+            <v>61535.631372549018</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>FR0000038259</v>
+          </cell>
+          <cell r="B44">
+            <v>652</v>
+          </cell>
+          <cell r="C44">
+            <v>1677.725490196078</v>
+          </cell>
+          <cell r="D44">
+            <v>11303</v>
+          </cell>
+          <cell r="E44">
+            <v>22755.427450980391</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>CH0012214059</v>
+          </cell>
+          <cell r="B45">
+            <v>659</v>
+          </cell>
+          <cell r="C45">
+            <v>2957.7647058823532</v>
+          </cell>
+          <cell r="D45">
+            <v>26894</v>
+          </cell>
+          <cell r="E45">
+            <v>120794.6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>FR0010918292</v>
+          </cell>
+          <cell r="B46">
+            <v>662</v>
+          </cell>
+          <cell r="C46">
+            <v>1713.2156862745101</v>
+          </cell>
+          <cell r="D46">
+            <v>10</v>
+          </cell>
+          <cell r="E46">
+            <v>18638.549019607839</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>FR0000051807</v>
+          </cell>
+          <cell r="B47">
+            <v>689</v>
+          </cell>
+          <cell r="C47">
+            <v>2022.1215686274511</v>
+          </cell>
+          <cell r="D47">
+            <v>7657</v>
+          </cell>
+          <cell r="E47">
+            <v>18167.329411764709</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>FR0010259150</v>
+          </cell>
+          <cell r="B48">
+            <v>746</v>
+          </cell>
+          <cell r="C48">
+            <v>2288.0117647058819</v>
+          </cell>
+          <cell r="D48">
+            <v>1</v>
+          </cell>
+          <cell r="E48">
+            <v>24875.9294117647</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>FR0004035913</v>
+          </cell>
+          <cell r="B49">
+            <v>787</v>
+          </cell>
+          <cell r="C49">
+            <v>3093.4666666666672</v>
+          </cell>
+          <cell r="D49">
+            <v>18798</v>
+          </cell>
+          <cell r="E49">
+            <v>56894.188976377947</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>FR0006174348</v>
+          </cell>
+          <cell r="B50">
+            <v>813</v>
+          </cell>
+          <cell r="C50">
+            <v>2792.552941176471</v>
+          </cell>
+          <cell r="D50">
+            <v>14066</v>
+          </cell>
+          <cell r="E50">
+            <v>48956.582677165352</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>FR0000184798</v>
+          </cell>
+          <cell r="B51">
+            <v>828</v>
+          </cell>
+          <cell r="C51">
+            <v>1930.113725490196</v>
+          </cell>
+          <cell r="D51">
+            <v>7727</v>
+          </cell>
+          <cell r="E51">
+            <v>25049.448818897639</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>FR0010908533</v>
+          </cell>
+          <cell r="B52">
+            <v>921</v>
+          </cell>
+          <cell r="C52">
+            <v>3287.0509803921568</v>
+          </cell>
+          <cell r="D52">
+            <v>35333</v>
+          </cell>
+          <cell r="E52">
+            <v>65009.287401574802</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>FR0010451203</v>
+          </cell>
+          <cell r="B53">
+            <v>932</v>
+          </cell>
+          <cell r="C53">
+            <v>3345.9411764705878</v>
+          </cell>
+          <cell r="D53">
+            <v>3</v>
+          </cell>
+          <cell r="E53">
+            <v>51610.345098039223</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>FR0010533075</v>
+          </cell>
+          <cell r="B54">
+            <v>937</v>
+          </cell>
+          <cell r="C54">
+            <v>2984.407843137255</v>
+          </cell>
+          <cell r="D54">
+            <v>4</v>
+          </cell>
+          <cell r="E54">
+            <v>51643.866666666669</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>LU0088087324</v>
+          </cell>
+          <cell r="B55">
+            <v>946</v>
+          </cell>
+          <cell r="C55">
+            <v>3743.4</v>
+          </cell>
+          <cell r="D55">
+            <v>20844</v>
+          </cell>
+          <cell r="E55">
+            <v>54291.346456692911</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>FR0010307819</v>
+          </cell>
+          <cell r="B56">
+            <v>954</v>
+          </cell>
+          <cell r="C56">
+            <v>4831.6784313725493</v>
+          </cell>
+          <cell r="D56">
+            <v>33697</v>
+          </cell>
+          <cell r="E56">
+            <v>115389.27952755911</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>FR0010221234</v>
+          </cell>
+          <cell r="B57">
+            <v>970</v>
+          </cell>
+          <cell r="C57">
+            <v>3500.84705882353</v>
+          </cell>
+          <cell r="D57">
+            <v>2</v>
+          </cell>
+          <cell r="E57">
+            <v>73200.333333333328</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>FR0000120693</v>
+          </cell>
+          <cell r="B58">
+            <v>982</v>
+          </cell>
+          <cell r="C58">
+            <v>3913.6901960784312</v>
+          </cell>
+          <cell r="D58">
+            <v>18733</v>
+          </cell>
+          <cell r="E58">
+            <v>59516.137254901958</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>FR0010411983</v>
+          </cell>
+          <cell r="B59">
+            <v>999</v>
+          </cell>
+          <cell r="C59">
+            <v>2514.7921568627448</v>
+          </cell>
+          <cell r="D59">
+            <v>17286</v>
+          </cell>
+          <cell r="E59">
+            <v>38335.622047244091</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>FR0000121220</v>
+          </cell>
+          <cell r="B60">
+            <v>1061</v>
+          </cell>
+          <cell r="C60">
+            <v>3440.18431372549</v>
+          </cell>
+          <cell r="D60">
+            <v>2</v>
+          </cell>
+          <cell r="E60">
+            <v>56202.109803921572</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>FR0010613471</v>
+          </cell>
+          <cell r="B61">
+            <v>1100</v>
+          </cell>
+          <cell r="C61">
+            <v>3514.4588235294118</v>
+          </cell>
+          <cell r="D61">
+            <v>15419</v>
+          </cell>
+          <cell r="E61">
+            <v>58186.011811023622</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>NL0000226223</v>
+          </cell>
+          <cell r="B62">
+            <v>1103</v>
+          </cell>
+          <cell r="C62">
+            <v>6018.9882352941177</v>
+          </cell>
+          <cell r="D62">
+            <v>2</v>
+          </cell>
+          <cell r="E62">
+            <v>115061.3294117647</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>FR0010313833</v>
+          </cell>
+          <cell r="B63">
+            <v>1150</v>
+          </cell>
+          <cell r="C63">
+            <v>4096.2745098039213</v>
+          </cell>
+          <cell r="D63">
+            <v>19549</v>
+          </cell>
+          <cell r="E63">
+            <v>99360.818897637801</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>FR0000125585</v>
+          </cell>
+          <cell r="B64">
+            <v>1177</v>
+          </cell>
+          <cell r="C64">
+            <v>4284.6901960784317</v>
+          </cell>
+          <cell r="D64">
+            <v>2</v>
+          </cell>
+          <cell r="E64">
+            <v>85103.184313725491</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>FR0000052292</v>
+          </cell>
+          <cell r="B65">
+            <v>1190</v>
+          </cell>
+          <cell r="C65">
+            <v>3979.705882352941</v>
+          </cell>
+          <cell r="D65">
+            <v>26823</v>
+          </cell>
+          <cell r="E65">
+            <v>76216.658823529418</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>FR0000130452</v>
+          </cell>
+          <cell r="B66">
+            <v>1202</v>
+          </cell>
+          <cell r="C66">
+            <v>4085.474509803922</v>
+          </cell>
+          <cell r="D66">
+            <v>2</v>
+          </cell>
+          <cell r="E66">
+            <v>100880.68235294121</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>FR0000121147</v>
+          </cell>
+          <cell r="B67">
+            <v>1214</v>
+          </cell>
+          <cell r="C67">
+            <v>5760.6980392156865</v>
+          </cell>
+          <cell r="D67">
+            <v>33989</v>
+          </cell>
+          <cell r="E67">
+            <v>143849.34251968499</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>FR0000130650</v>
+          </cell>
+          <cell r="B68">
+            <v>1216</v>
+          </cell>
+          <cell r="C68">
+            <v>3957.0980392156862</v>
+          </cell>
+          <cell r="D68">
+            <v>26640</v>
+          </cell>
+          <cell r="E68">
+            <v>86930.307086614179</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>FR0000121964</v>
+          </cell>
+          <cell r="B69">
+            <v>1314</v>
+          </cell>
+          <cell r="C69">
+            <v>3807.8235294117649</v>
+          </cell>
+          <cell r="D69">
+            <v>1</v>
+          </cell>
+          <cell r="E69">
+            <v>78516.05098039216</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>FR0010220475</v>
+          </cell>
+          <cell r="B70">
+            <v>1419</v>
+          </cell>
+          <cell r="C70">
+            <v>4367.8235294117649</v>
+          </cell>
+          <cell r="D70">
+            <v>39070</v>
+          </cell>
+          <cell r="E70">
+            <v>97389.370078740161</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>FR0000051732</v>
+          </cell>
+          <cell r="B71">
+            <v>1432</v>
+          </cell>
+          <cell r="C71">
+            <v>4424.6705882352944</v>
+          </cell>
+          <cell r="D71">
+            <v>16914</v>
+          </cell>
+          <cell r="E71">
+            <v>65125.023529411767</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>FR0000130577</v>
+          </cell>
+          <cell r="B72">
+            <v>1698</v>
+          </cell>
+          <cell r="C72">
+            <v>6297.5921568627446</v>
+          </cell>
+          <cell r="D72">
+            <v>1</v>
+          </cell>
+          <cell r="E72">
+            <v>117808.7490196078</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>FR0000121329</v>
+          </cell>
+          <cell r="B73">
+            <v>1741</v>
+          </cell>
+          <cell r="C73">
+            <v>4937.2941176470586</v>
+          </cell>
+          <cell r="D73">
+            <v>3</v>
+          </cell>
+          <cell r="E73">
+            <v>104325.0196078431</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>FR0000121485</v>
+          </cell>
+          <cell r="B74">
+            <v>1760</v>
+          </cell>
+          <cell r="C74">
+            <v>6229.2549019607841</v>
+          </cell>
+          <cell r="D74">
+            <v>1</v>
+          </cell>
+          <cell r="E74">
+            <v>134314.831372549</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>FR0000121667</v>
+          </cell>
+          <cell r="B75">
+            <v>1766</v>
+          </cell>
+          <cell r="C75">
+            <v>5776.4313725490192</v>
+          </cell>
+          <cell r="D75">
+            <v>3</v>
+          </cell>
+          <cell r="E75">
+            <v>69905.768627450976</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>FR0000125346</v>
+          </cell>
+          <cell r="B76">
+            <v>1826</v>
+          </cell>
+          <cell r="C76">
+            <v>5758.1725490196077</v>
+          </cell>
+          <cell r="D76">
+            <v>44675</v>
+          </cell>
+          <cell r="E76">
+            <v>111055.9606299213</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>FR0000121261</v>
+          </cell>
+          <cell r="B77">
+            <v>1832</v>
+          </cell>
+          <cell r="C77">
+            <v>5433.6549019607846</v>
+          </cell>
+          <cell r="D77">
+            <v>1</v>
+          </cell>
+          <cell r="E77">
+            <v>68452.074509803919</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>FR0000120321</v>
+          </cell>
+          <cell r="B78">
+            <v>1857</v>
+          </cell>
+          <cell r="C78">
+            <v>6863.3372549019596</v>
+          </cell>
+          <cell r="D78">
+            <v>34256</v>
+          </cell>
+          <cell r="E78">
+            <v>106812.57254901961</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>FR0000120503</v>
+          </cell>
+          <cell r="B79">
+            <v>1859</v>
+          </cell>
+          <cell r="C79">
+            <v>5425.1333333333332</v>
+          </cell>
+          <cell r="D79">
+            <v>42345</v>
+          </cell>
+          <cell r="E79">
+            <v>141938.12549019611</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>FR0000120685</v>
+          </cell>
+          <cell r="B80">
+            <v>1931</v>
+          </cell>
+          <cell r="C80">
+            <v>6732.0980392156862</v>
+          </cell>
+          <cell r="D80">
+            <v>36977</v>
+          </cell>
+          <cell r="E80">
+            <v>135955.0745098039</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>FR0013176526</v>
+          </cell>
+          <cell r="B81">
+            <v>2145</v>
+          </cell>
+          <cell r="C81">
+            <v>7404.9568627450981</v>
+          </cell>
+          <cell r="D81">
+            <v>54363</v>
+          </cell>
+          <cell r="E81">
+            <v>150530.8464566929</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>FR0010242511</v>
+          </cell>
+          <cell r="B82">
+            <v>2151</v>
+          </cell>
+          <cell r="C82">
+            <v>7081.9764705882353</v>
+          </cell>
+          <cell r="D82">
+            <v>8</v>
+          </cell>
+          <cell r="E82">
+            <v>127558.6078431373</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>FR0000124141</v>
+          </cell>
+          <cell r="B83">
+            <v>2238</v>
+          </cell>
+          <cell r="C83">
+            <v>5710.8784313725491</v>
+          </cell>
+          <cell r="D83">
+            <v>1</v>
+          </cell>
+          <cell r="E83">
+            <v>94483.784313725497</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>FR0000121501</v>
+          </cell>
+          <cell r="B84">
+            <v>2373</v>
+          </cell>
+          <cell r="C84">
+            <v>7803</v>
+          </cell>
+          <cell r="D84">
+            <v>7</v>
+          </cell>
+          <cell r="E84">
+            <v>129932.368627451</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>FR0000127771</v>
+          </cell>
+          <cell r="B85">
+            <v>2460</v>
+          </cell>
+          <cell r="C85">
+            <v>7384.3882352941173</v>
+          </cell>
+          <cell r="D85">
+            <v>4</v>
+          </cell>
+          <cell r="E85">
+            <v>128829.9725490196</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>FR0000120404</v>
+          </cell>
+          <cell r="B86">
+            <v>2465</v>
+          </cell>
+          <cell r="C86">
+            <v>6386.3176470588232</v>
+          </cell>
+          <cell r="D86">
+            <v>74603</v>
+          </cell>
+          <cell r="E86">
+            <v>151317.92941176469</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>FR0000121972</v>
+          </cell>
+          <cell r="B87">
+            <v>2499</v>
+          </cell>
+          <cell r="C87">
+            <v>8408.9058823529413</v>
+          </cell>
+          <cell r="D87">
+            <v>1</v>
+          </cell>
+          <cell r="E87">
+            <v>177390.83529411771</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>FR0000131906</v>
+          </cell>
+          <cell r="B88">
+            <v>2569</v>
+          </cell>
+          <cell r="C88">
+            <v>10024.82352941176</v>
+          </cell>
+          <cell r="D88">
+            <v>3</v>
+          </cell>
+          <cell r="E88">
+            <v>275704.01960784307</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>FR0000120073</v>
+          </cell>
+          <cell r="B89">
+            <v>2570</v>
+          </cell>
+          <cell r="C89">
+            <v>6036.850980392157</v>
+          </cell>
+          <cell r="D89">
+            <v>26386</v>
+          </cell>
+          <cell r="E89">
+            <v>60197.207843137257</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>FR0000031122</v>
+          </cell>
+          <cell r="B90">
+            <v>2758</v>
+          </cell>
+          <cell r="C90">
+            <v>7597.6549019607846</v>
+          </cell>
+          <cell r="D90">
+            <v>32503</v>
+          </cell>
+          <cell r="E90">
+            <v>89923.266666666663</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>FR0000045072</v>
+          </cell>
+          <cell r="B91">
+            <v>2808</v>
+          </cell>
+          <cell r="C91">
+            <v>8871.9215686274511</v>
+          </cell>
+          <cell r="D91">
+            <v>32188</v>
+          </cell>
+          <cell r="E91">
+            <v>130511.2549019608</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>FR0000121014</v>
+          </cell>
+          <cell r="B92">
+            <v>2913</v>
+          </cell>
+          <cell r="C92">
+            <v>9206.5098039215682</v>
+          </cell>
+          <cell r="D92">
+            <v>3</v>
+          </cell>
+          <cell r="E92">
+            <v>156092.0588235294</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>FR0000120172</v>
+          </cell>
+          <cell r="B93">
+            <v>2924</v>
+          </cell>
+          <cell r="C93">
+            <v>8666.7372549019601</v>
+          </cell>
+          <cell r="D93">
+            <v>44902</v>
+          </cell>
+          <cell r="E93">
+            <v>126828.40784313731</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>FR0000120644</v>
+          </cell>
+          <cell r="B94">
+            <v>2978</v>
+          </cell>
+          <cell r="C94">
+            <v>8965.6156862745102</v>
+          </cell>
+          <cell r="D94">
+            <v>64329</v>
+          </cell>
+          <cell r="E94">
+            <v>156527.45882352939</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>FR0000125486</v>
+          </cell>
+          <cell r="B95">
+            <v>3010</v>
+          </cell>
+          <cell r="C95">
+            <v>9074.176470588236</v>
+          </cell>
+          <cell r="D95">
+            <v>50153</v>
+          </cell>
+          <cell r="E95">
+            <v>165594.29921259839</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>FR0000120354</v>
+          </cell>
+          <cell r="B96">
+            <v>3068</v>
+          </cell>
+          <cell r="C96">
+            <v>8287.0862745098038</v>
+          </cell>
+          <cell r="D96">
+            <v>61324</v>
+          </cell>
+          <cell r="E96">
+            <v>142742.52156862739</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>FR0000133308</v>
+          </cell>
+          <cell r="B97">
+            <v>3328</v>
+          </cell>
+          <cell r="C97">
+            <v>8099.8549019607844</v>
+          </cell>
+          <cell r="D97">
+            <v>5</v>
+          </cell>
+          <cell r="E97">
+            <v>103976.8901960784</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>FR0010208488</v>
+          </cell>
+          <cell r="B98">
+            <v>3332</v>
+          </cell>
+          <cell r="C98">
+            <v>7836.6039215686278</v>
+          </cell>
+          <cell r="D98">
+            <v>2</v>
+          </cell>
+          <cell r="E98">
+            <v>109481.2784313725</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>FR0000125007</v>
+          </cell>
+          <cell r="B99">
+            <v>3410</v>
+          </cell>
+          <cell r="C99">
+            <v>8955.7921568627444</v>
+          </cell>
+          <cell r="D99">
+            <v>65131</v>
+          </cell>
+          <cell r="E99">
+            <v>212939.11811023619</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>NL0000235190</v>
+          </cell>
+          <cell r="B100">
+            <v>3717</v>
+          </cell>
+          <cell r="C100">
+            <v>12097.552941176469</v>
+          </cell>
+          <cell r="D100">
+            <v>2</v>
+          </cell>
+          <cell r="E100">
+            <v>214641.96862745099</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>FR0000120628</v>
+          </cell>
+          <cell r="B101">
+            <v>4291</v>
+          </cell>
+          <cell r="C101">
+            <v>11841.952941176471</v>
+          </cell>
+          <cell r="D101">
+            <v>81151</v>
+          </cell>
+          <cell r="E101">
+            <v>210803.53725490201</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>FR0000130809</v>
+          </cell>
+          <cell r="B102">
+            <v>5557</v>
+          </cell>
+          <cell r="C102">
+            <v>19105.96862745098</v>
+          </cell>
+          <cell r="D102">
+            <v>2</v>
+          </cell>
+          <cell r="E102">
+            <v>376012.5294117647</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>FR0000131104</v>
+          </cell>
+          <cell r="B103">
+            <v>5737</v>
+          </cell>
+          <cell r="C103">
+            <v>18010.713725490201</v>
+          </cell>
+          <cell r="D103">
+            <v>1</v>
+          </cell>
+          <cell r="E103">
+            <v>311086.36470588233</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>FR0000120578</v>
+          </cell>
+          <cell r="B104">
+            <v>5900</v>
+          </cell>
+          <cell r="C104">
+            <v>14335.203921568631</v>
+          </cell>
+          <cell r="D104">
+            <v>96042</v>
+          </cell>
+          <cell r="E104">
+            <v>249928.2470588235</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>FR0000120271</v>
+          </cell>
+          <cell r="B105">
+            <v>7293</v>
+          </cell>
+          <cell r="C105">
+            <v>18799.098039215689</v>
+          </cell>
+          <cell r="D105">
+            <v>123196</v>
+          </cell>
+          <cell r="E105">
+            <v>408001.23137254902</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3162,10 +4983,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:U128"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116:O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,12 +5001,13 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>598</v>
       </c>
@@ -3228,8 +5050,11 @@
       <c r="N1" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3263,12 +5088,28 @@
         <f t="shared" ref="K2:K33" si="1">IF(AND(C2=TRUE, D2=TRUE, I2&lt;&gt;TRUE, H2=255), TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="L2" s="5">
+        <f>VLOOKUP($A2, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2465</v>
+      </c>
+      <c r="M2" s="5">
+        <f>VLOOKUP($A2, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6386.3176470588232</v>
+      </c>
+      <c r="N2" s="5">
+        <f>VLOOKUP($A2, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>74603</v>
+      </c>
+      <c r="O2" s="5">
+        <f>VLOOKUP($A2, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>151317.92941176469</v>
+      </c>
+      <c r="R2">
         <f>COUNTIF(K:K, "=TRUE")</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3302,8 +5143,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L3" s="5">
+        <f>VLOOKUP($A3, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>524</v>
+      </c>
+      <c r="M3" s="5">
+        <f>VLOOKUP($A3, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1554.6392156862751</v>
+      </c>
+      <c r="N3" s="5">
+        <f>VLOOKUP($A3, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>5271</v>
+      </c>
+      <c r="O3" s="5">
+        <f>VLOOKUP($A3, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>14798.00787401575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3337,8 +5194,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L4" s="5">
+        <f>VLOOKUP($A4, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2758</v>
+      </c>
+      <c r="M4" s="5">
+        <f>VLOOKUP($A4, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7597.6549019607846</v>
+      </c>
+      <c r="N4" s="5">
+        <f>VLOOKUP($A4, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>32503</v>
+      </c>
+      <c r="O4" s="5">
+        <f>VLOOKUP($A4, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>89923.266666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3372,8 +5245,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <f>VLOOKUP($A5, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2570</v>
+      </c>
+      <c r="M5" s="5">
+        <f>VLOOKUP($A5, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6036.850980392157</v>
+      </c>
+      <c r="N5" s="5">
+        <f>VLOOKUP($A5, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>26386</v>
+      </c>
+      <c r="O5" s="5">
+        <f>VLOOKUP($A5, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>60197.207843137257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3407,8 +5296,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L6" s="5">
+        <f>VLOOKUP($A6, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3717</v>
+      </c>
+      <c r="M6" s="5">
+        <f>VLOOKUP($A6, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>12097.552941176469</v>
+      </c>
+      <c r="N6" s="5">
+        <f>VLOOKUP($A6, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <f>VLOOKUP($A6, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>214641.96862745099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3442,8 +5347,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3477,8 +5386,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L8" s="5">
+        <f>VLOOKUP($A8, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1419</v>
+      </c>
+      <c r="M8" s="5">
+        <f>VLOOKUP($A8, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4367.8235294117649</v>
+      </c>
+      <c r="N8" s="5">
+        <f>VLOOKUP($A8, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>39070</v>
+      </c>
+      <c r="O8" s="5">
+        <f>VLOOKUP($A8, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>97389.370078740161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3512,8 +5437,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <f>VLOOKUP($A9, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>271</v>
+      </c>
+      <c r="M9" s="5">
+        <f>VLOOKUP($A9, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>857.60784313725492</v>
+      </c>
+      <c r="N9" s="5">
+        <f>VLOOKUP($A9, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4628</v>
+      </c>
+      <c r="O9" s="5">
+        <f>VLOOKUP($A9, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>12439.431372549019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>503</v>
       </c>
@@ -3547,8 +5488,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <f>VLOOKUP($A10, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>442</v>
+      </c>
+      <c r="M10" s="5">
+        <f>VLOOKUP($A10, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1283.262745098039</v>
+      </c>
+      <c r="N10" s="5">
+        <f>VLOOKUP($A10, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4671</v>
+      </c>
+      <c r="O10" s="5">
+        <f>VLOOKUP($A10, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>12563.85490196078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3582,8 +5539,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <f>VLOOKUP($A11, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>274</v>
+      </c>
+      <c r="M11" s="5">
+        <f>VLOOKUP($A11, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2331.262745098039</v>
+      </c>
+      <c r="N11" s="5">
+        <f>VLOOKUP($A11, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <f>VLOOKUP($A11, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>22116.70196078431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -3614,8 +5587,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -3646,8 +5623,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3681,8 +5662,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L14" s="5">
+        <f>VLOOKUP($A14, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1150</v>
+      </c>
+      <c r="M14" s="5">
+        <f>VLOOKUP($A14, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4096.2745098039213</v>
+      </c>
+      <c r="N14" s="5">
+        <f>VLOOKUP($A14, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>19549</v>
+      </c>
+      <c r="O14" s="5">
+        <f>VLOOKUP($A14, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>99360.818897637801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3716,8 +5713,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <f>VLOOKUP($A15, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1432</v>
+      </c>
+      <c r="M15" s="5">
+        <f>VLOOKUP($A15, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4424.6705882352944</v>
+      </c>
+      <c r="N15" s="5">
+        <f>VLOOKUP($A15, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>16914</v>
+      </c>
+      <c r="O15" s="5">
+        <f>VLOOKUP($A15, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>65125.023529411767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3751,8 +5764,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <f>VLOOKUP($A16, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>4291</v>
+      </c>
+      <c r="M16" s="5">
+        <f>VLOOKUP($A16, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>11841.952941176471</v>
+      </c>
+      <c r="N16" s="5">
+        <f>VLOOKUP($A16, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>81151</v>
+      </c>
+      <c r="O16" s="5">
+        <f>VLOOKUP($A16, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>210803.53725490201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3786,8 +5815,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -3821,8 +5854,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <f>VLOOKUP($A18, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>5737</v>
+      </c>
+      <c r="M18" s="5">
+        <f>VLOOKUP($A18, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>18010.713725490201</v>
+      </c>
+      <c r="N18" s="5">
+        <f>VLOOKUP($A18, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <f>VLOOKUP($A18, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>311086.36470588233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -3856,8 +5905,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <f>VLOOKUP($A19, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>568</v>
+      </c>
+      <c r="M19" s="5">
+        <f>VLOOKUP($A19, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1829.5803921568629</v>
+      </c>
+      <c r="N19" s="5">
+        <f>VLOOKUP($A19, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>8239</v>
+      </c>
+      <c r="O19" s="5">
+        <f>VLOOKUP($A19, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>27969.925490196081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3891,8 +5956,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <f>VLOOKUP($A20, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1859</v>
+      </c>
+      <c r="M20" s="5">
+        <f>VLOOKUP($A20, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5425.1333333333332</v>
+      </c>
+      <c r="N20" s="5">
+        <f>VLOOKUP($A20, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>42345</v>
+      </c>
+      <c r="O20" s="5">
+        <f>VLOOKUP($A20, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>141938.12549019611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +6007,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="5">
+        <f>VLOOKUP($A21, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>813</v>
+      </c>
+      <c r="M21" s="5">
+        <f>VLOOKUP($A21, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2792.552941176471</v>
+      </c>
+      <c r="N21" s="5">
+        <f>VLOOKUP($A21, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>14066</v>
+      </c>
+      <c r="O21" s="5">
+        <f>VLOOKUP($A21, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>48956.582677165352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3967,8 +6064,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -4002,8 +6103,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="5">
+        <f>VLOOKUP($A23, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2924</v>
+      </c>
+      <c r="M23" s="5">
+        <f>VLOOKUP($A23, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8666.7372549019601</v>
+      </c>
+      <c r="N23" s="5">
+        <f>VLOOKUP($A23, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>44902</v>
+      </c>
+      <c r="O23" s="5">
+        <f>VLOOKUP($A23, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>126828.40784313731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -4037,8 +6154,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="5">
+        <f>VLOOKUP($A24, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1177</v>
+      </c>
+      <c r="M24" s="5">
+        <f>VLOOKUP($A24, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4284.6901960784317</v>
+      </c>
+      <c r="N24" s="5">
+        <f>VLOOKUP($A24, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O24" s="5">
+        <f>VLOOKUP($A24, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>85103.184313725491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -4072,8 +6205,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4107,8 +6244,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="5">
+        <f>VLOOKUP($A26, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>483</v>
+      </c>
+      <c r="M26" s="5">
+        <f>VLOOKUP($A26, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1286.223529411765</v>
+      </c>
+      <c r="N26" s="5">
+        <f>VLOOKUP($A26, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="O26" s="5">
+        <f>VLOOKUP($A26, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>13889.76862745098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>495</v>
       </c>
@@ -4142,8 +6295,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="5">
+        <f>VLOOKUP($A27, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>552</v>
+      </c>
+      <c r="M27" s="5">
+        <f>VLOOKUP($A27, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1685.9411764705881</v>
+      </c>
+      <c r="N27" s="5">
+        <f>VLOOKUP($A27, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7572</v>
+      </c>
+      <c r="O27" s="5">
+        <f>VLOOKUP($A27, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>21775.643137254901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -4177,8 +6346,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="5">
+        <f>VLOOKUP($A28, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>471</v>
+      </c>
+      <c r="M28" s="5">
+        <f>VLOOKUP($A28, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1959.7490196078429</v>
+      </c>
+      <c r="N28" s="5">
+        <f>VLOOKUP($A28, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <f>VLOOKUP($A28, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>26584.19215686274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4212,8 +6397,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="5">
+        <f>VLOOKUP($A29, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>480</v>
+      </c>
+      <c r="M29" s="5">
+        <f>VLOOKUP($A29, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1606.725490196078</v>
+      </c>
+      <c r="N29" s="5">
+        <f>VLOOKUP($A29, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7391</v>
+      </c>
+      <c r="O29" s="5">
+        <f>VLOOKUP($A29, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>22847.294117647059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -4247,8 +6448,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="5">
+        <f>VLOOKUP($A30, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2808</v>
+      </c>
+      <c r="M30" s="5">
+        <f>VLOOKUP($A30, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8871.9215686274511</v>
+      </c>
+      <c r="N30" s="5">
+        <f>VLOOKUP($A30, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>32188</v>
+      </c>
+      <c r="O30" s="5">
+        <f>VLOOKUP($A30, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>130511.2549019608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4282,8 +6499,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="5">
+        <f>VLOOKUP($A31, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2978</v>
+      </c>
+      <c r="M31" s="5">
+        <f>VLOOKUP($A31, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8965.6156862745102</v>
+      </c>
+      <c r="N31" s="5">
+        <f>VLOOKUP($A31, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>64329</v>
+      </c>
+      <c r="O31" s="5">
+        <f>VLOOKUP($A31, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>156527.45882352939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>506</v>
       </c>
@@ -4317,8 +6550,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="5">
+        <f>VLOOKUP($A32, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>425</v>
+      </c>
+      <c r="M32" s="5">
+        <f>VLOOKUP($A32, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1181.4666666666669</v>
+      </c>
+      <c r="N32" s="5">
+        <f>VLOOKUP($A32, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <f>VLOOKUP($A32, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>20921.639215686271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>507</v>
       </c>
@@ -4352,8 +6601,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="5">
+        <f>VLOOKUP($A33, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1216</v>
+      </c>
+      <c r="M33" s="5">
+        <f>VLOOKUP($A33, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3957.0980392156862</v>
+      </c>
+      <c r="N33" s="5">
+        <f>VLOOKUP($A33, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>26640</v>
+      </c>
+      <c r="O33" s="5">
+        <f>VLOOKUP($A33, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>86930.307086614179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>480</v>
       </c>
@@ -4387,8 +6652,24 @@
         <f t="shared" ref="K34:K65" si="3">IF(AND(C34=TRUE, D34=TRUE, I34&lt;&gt;TRUE, H34=255), TRUE, FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="5">
+        <f>VLOOKUP($A34, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>238</v>
+      </c>
+      <c r="M34" s="5">
+        <f>VLOOKUP($A34, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1403.2078431372549</v>
+      </c>
+      <c r="N34" s="5">
+        <f>VLOOKUP($A34, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="O34" s="5">
+        <f>VLOOKUP($A34, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>18579.627450980392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -4422,8 +6703,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="5">
+        <f>VLOOKUP($A35, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>921</v>
+      </c>
+      <c r="M35" s="5">
+        <f>VLOOKUP($A35, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3287.0509803921568</v>
+      </c>
+      <c r="N35" s="5">
+        <f>VLOOKUP($A35, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>35333</v>
+      </c>
+      <c r="O35" s="5">
+        <f>VLOOKUP($A35, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>65009.287401574802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4457,8 +6754,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="5">
+        <f>VLOOKUP($A36, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1202</v>
+      </c>
+      <c r="M36" s="5">
+        <f>VLOOKUP($A36, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4085.474509803922</v>
+      </c>
+      <c r="N36" s="5">
+        <f>VLOOKUP($A36, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O36" s="5">
+        <f>VLOOKUP($A36, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>100880.68235294121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>494</v>
       </c>
@@ -4492,8 +6805,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="5">
+        <f>VLOOKUP($A37, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2151</v>
+      </c>
+      <c r="M37" s="5">
+        <f>VLOOKUP($A37, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7081.9764705882353</v>
+      </c>
+      <c r="N37" s="5">
+        <f>VLOOKUP($A37, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="O37" s="5">
+        <f>VLOOKUP($A37, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>127558.6078431373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -4527,8 +6856,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="5">
+        <f>VLOOKUP($A38, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>585</v>
+      </c>
+      <c r="M38" s="5">
+        <f>VLOOKUP($A38, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1962.2716535433069</v>
+      </c>
+      <c r="N38" s="5">
+        <f>VLOOKUP($A38, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O38" s="5">
+        <f>VLOOKUP($A38, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>20452.19215686274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -4562,8 +6907,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="5">
+        <f>VLOOKUP($A39, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>323</v>
+      </c>
+      <c r="M39" s="5">
+        <f>VLOOKUP($A39, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1707.8</v>
+      </c>
+      <c r="N39" s="5">
+        <f>VLOOKUP($A39, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <f>VLOOKUP($A39, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>15885.52156862745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -4597,8 +6958,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="5">
+        <f>VLOOKUP($A40, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3332</v>
+      </c>
+      <c r="M40" s="5">
+        <f>VLOOKUP($A40, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7836.6039215686278</v>
+      </c>
+      <c r="N40" s="5">
+        <f>VLOOKUP($A40, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O40" s="5">
+        <f>VLOOKUP($A40, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>109481.2784313725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -4632,8 +7009,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -4667,8 +7048,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="5">
+        <f>VLOOKUP($A42, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1766</v>
+      </c>
+      <c r="M42" s="5">
+        <f>VLOOKUP($A42, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5776.4313725490192</v>
+      </c>
+      <c r="N42" s="5">
+        <f>VLOOKUP($A42, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O42" s="5">
+        <f>VLOOKUP($A42, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>69905.768627450976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>504</v>
       </c>
@@ -4702,8 +7099,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="5">
+        <f>VLOOKUP($A43, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="M43" s="5">
+        <f>VLOOKUP($A43, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>555.43921568627457</v>
+      </c>
+      <c r="N43" s="5">
+        <f>VLOOKUP($A43, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>761</v>
+      </c>
+      <c r="O43" s="5">
+        <f>VLOOKUP($A43, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>7066.3346456692916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4737,8 +7150,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="5">
+        <f>VLOOKUP($A44, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>503</v>
+      </c>
+      <c r="M44" s="5">
+        <f>VLOOKUP($A44, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1714.294117647059</v>
+      </c>
+      <c r="N44" s="5">
+        <f>VLOOKUP($A44, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>6911</v>
+      </c>
+      <c r="O44" s="5">
+        <f>VLOOKUP($A44, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>22959.13779527559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -4772,8 +7201,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="5">
+        <f>VLOOKUP($A45, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>652</v>
+      </c>
+      <c r="M45" s="5">
+        <f>VLOOKUP($A45, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1677.725490196078</v>
+      </c>
+      <c r="N45" s="5">
+        <f>VLOOKUP($A45, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>11303</v>
+      </c>
+      <c r="O45" s="5">
+        <f>VLOOKUP($A45, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>22755.427450980391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4807,8 +7252,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="5">
+        <f>VLOOKUP($A46, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>311</v>
+      </c>
+      <c r="M46" s="5">
+        <f>VLOOKUP($A46, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1557.0705882352941</v>
+      </c>
+      <c r="N46" s="5">
+        <f>VLOOKUP($A46, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <f>VLOOKUP($A46, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>19869.690196078431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>502</v>
       </c>
@@ -4842,8 +7303,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="5">
+        <f>VLOOKUP($A47, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>302</v>
+      </c>
+      <c r="M47" s="5">
+        <f>VLOOKUP($A47, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1109.882352941177</v>
+      </c>
+      <c r="N47" s="5">
+        <f>VLOOKUP($A47, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3672</v>
+      </c>
+      <c r="O47" s="5">
+        <f>VLOOKUP($A47, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>11782.527559055119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -4877,8 +7354,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="5">
+        <f>VLOOKUP($A48, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>970</v>
+      </c>
+      <c r="M48" s="5">
+        <f>VLOOKUP($A48, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3500.84705882353</v>
+      </c>
+      <c r="N48" s="5">
+        <f>VLOOKUP($A48, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O48" s="5">
+        <f>VLOOKUP($A48, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>73200.333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -4912,8 +7405,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -4947,8 +7444,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="5">
+        <f>VLOOKUP($A50, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1214</v>
+      </c>
+      <c r="M50" s="5">
+        <f>VLOOKUP($A50, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5760.6980392156865</v>
+      </c>
+      <c r="N50" s="5">
+        <f>VLOOKUP($A50, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>33989</v>
+      </c>
+      <c r="O50" s="5">
+        <f>VLOOKUP($A50, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>143849.34251968499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -4982,8 +7495,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="5">
+        <f>VLOOKUP($A51, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>315</v>
+      </c>
+      <c r="M51" s="5">
+        <f>VLOOKUP($A51, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>983.32941176470592</v>
+      </c>
+      <c r="N51" s="5">
+        <f>VLOOKUP($A51, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <f>VLOOKUP($A51, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>14091.52941176471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -5017,8 +7546,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="5">
+        <f>VLOOKUP($A52, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>312</v>
+      </c>
+      <c r="M52" s="5">
+        <f>VLOOKUP($A52, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1354.607843137255</v>
+      </c>
+      <c r="N52" s="5">
+        <f>VLOOKUP($A52, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>5415</v>
+      </c>
+      <c r="O52" s="5">
+        <f>VLOOKUP($A52, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>13768.20866141732</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>434</v>
       </c>
@@ -5049,8 +7594,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>483</v>
       </c>
@@ -5084,8 +7633,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="5">
+        <f>VLOOKUP($A54, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>455</v>
+      </c>
+      <c r="M54" s="5">
+        <f>VLOOKUP($A54, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1743.3372549019609</v>
+      </c>
+      <c r="N54" s="5">
+        <f>VLOOKUP($A54, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="O54" s="5">
+        <f>VLOOKUP($A54, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>13987.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -5119,8 +7684,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="5">
+        <f>VLOOKUP($A55, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>937</v>
+      </c>
+      <c r="M55" s="5">
+        <f>VLOOKUP($A55, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2984.407843137255</v>
+      </c>
+      <c r="N55" s="5">
+        <f>VLOOKUP($A55, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="O55" s="5">
+        <f>VLOOKUP($A55, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>51643.866666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>591</v>
       </c>
@@ -5154,8 +7735,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5189,8 +7774,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="5">
+        <f>VLOOKUP($A57, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1190</v>
+      </c>
+      <c r="M57" s="5">
+        <f>VLOOKUP($A57, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3979.705882352941</v>
+      </c>
+      <c r="N57" s="5">
+        <f>VLOOKUP($A57, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>26823</v>
+      </c>
+      <c r="O57" s="5">
+        <f>VLOOKUP($A57, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>76216.658823529418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>447</v>
       </c>
@@ -5224,8 +7825,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="5">
+        <f>VLOOKUP($A58, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>659</v>
+      </c>
+      <c r="M58" s="5">
+        <f>VLOOKUP($A58, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2957.7647058823532</v>
+      </c>
+      <c r="N58" s="5">
+        <f>VLOOKUP($A58, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>26894</v>
+      </c>
+      <c r="O58" s="5">
+        <f>VLOOKUP($A58, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>120794.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -5259,8 +7876,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="5">
+        <f>VLOOKUP($A59, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>513</v>
+      </c>
+      <c r="M59" s="5">
+        <f>VLOOKUP($A59, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1275.4941176470591</v>
+      </c>
+      <c r="N59" s="5">
+        <f>VLOOKUP($A59, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>6544</v>
+      </c>
+      <c r="O59" s="5">
+        <f>VLOOKUP($A59, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>17766.098039215689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>499</v>
       </c>
@@ -5294,8 +7927,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="5">
+        <f>VLOOKUP($A60, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="M60" s="5">
+        <f>VLOOKUP($A60, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3093.4666666666672</v>
+      </c>
+      <c r="N60" s="5">
+        <f>VLOOKUP($A60, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>18798</v>
+      </c>
+      <c r="O60" s="5">
+        <f>VLOOKUP($A60, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>56894.188976377947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -5329,8 +7978,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="5">
+        <f>VLOOKUP($A61, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>367</v>
+      </c>
+      <c r="M61" s="5">
+        <f>VLOOKUP($A61, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1575.6313725490199</v>
+      </c>
+      <c r="N61" s="5">
+        <f>VLOOKUP($A61, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>8673</v>
+      </c>
+      <c r="O61" s="5">
+        <f>VLOOKUP($A61, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>23601.944881889769</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>489</v>
       </c>
@@ -5364,8 +8029,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -5399,8 +8068,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="5">
+        <f>VLOOKUP($A63, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>746</v>
+      </c>
+      <c r="M63" s="5">
+        <f>VLOOKUP($A63, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2288.0117647058819</v>
+      </c>
+      <c r="N63" s="5">
+        <f>VLOOKUP($A63, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O63" s="5">
+        <f>VLOOKUP($A63, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>24875.9294117647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -5440,8 +8125,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -5475,8 +8164,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="5">
+        <f>VLOOKUP($A65, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>487</v>
+      </c>
+      <c r="M65" s="5">
+        <f>VLOOKUP($A65, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1622.3607843137249</v>
+      </c>
+      <c r="N65" s="5">
+        <f>VLOOKUP($A65, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7512</v>
+      </c>
+      <c r="O65" s="5">
+        <f>VLOOKUP($A65, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>25869.333333333328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -5510,8 +8215,24 @@
         <f t="shared" ref="K66:K128" si="5">IF(AND(C66=TRUE, D66=TRUE, I66&lt;&gt;TRUE, H66=255), TRUE, FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="5">
+        <f>VLOOKUP($A66, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1760</v>
+      </c>
+      <c r="M66" s="5">
+        <f>VLOOKUP($A66, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6229.2549019607841</v>
+      </c>
+      <c r="N66" s="5">
+        <f>VLOOKUP($A66, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O66" s="5">
+        <f>VLOOKUP($A66, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>134314.831372549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -5545,8 +8266,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="5">
+        <f>VLOOKUP($A67, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1314</v>
+      </c>
+      <c r="M67" s="5">
+        <f>VLOOKUP($A67, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3807.8235294117649</v>
+      </c>
+      <c r="N67" s="5">
+        <f>VLOOKUP($A67, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
+        <f>VLOOKUP($A67, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>78516.05098039216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -5580,8 +8317,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="5">
+        <f>VLOOKUP($A68, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1857</v>
+      </c>
+      <c r="M68" s="5">
+        <f>VLOOKUP($A68, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6863.3372549019596</v>
+      </c>
+      <c r="N68" s="5">
+        <f>VLOOKUP($A68, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>34256</v>
+      </c>
+      <c r="O68" s="5">
+        <f>VLOOKUP($A68, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>106812.57254901961</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -5615,8 +8368,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="5">
+        <f>VLOOKUP($A69, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>518</v>
+      </c>
+      <c r="M69" s="5">
+        <f>VLOOKUP($A69, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2062.4196078431369</v>
+      </c>
+      <c r="N69" s="5">
+        <f>VLOOKUP($A69, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>17581</v>
+      </c>
+      <c r="O69" s="5">
+        <f>VLOOKUP($A69, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>55547.578740157478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -5650,8 +8419,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="5">
+        <f>VLOOKUP($A70, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>954</v>
+      </c>
+      <c r="M70" s="5">
+        <f>VLOOKUP($A70, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4831.6784313725493</v>
+      </c>
+      <c r="N70" s="5">
+        <f>VLOOKUP($A70, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>33697</v>
+      </c>
+      <c r="O70" s="5">
+        <f>VLOOKUP($A70, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>115389.27952755911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -5685,8 +8470,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="5">
+        <f>VLOOKUP($A71, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2913</v>
+      </c>
+      <c r="M71" s="5">
+        <f>VLOOKUP($A71, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>9206.5098039215682</v>
+      </c>
+      <c r="N71" s="5">
+        <f>VLOOKUP($A71, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O71" s="5">
+        <f>VLOOKUP($A71, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>156092.0588235294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>478</v>
       </c>
@@ -5720,8 +8521,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>490</v>
       </c>
@@ -5755,8 +8560,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -5790,8 +8599,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="5">
+        <f>VLOOKUP($A74, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>347</v>
+      </c>
+      <c r="M74" s="5">
+        <f>VLOOKUP($A74, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>858.2627450980392</v>
+      </c>
+      <c r="N74" s="5">
+        <f>VLOOKUP($A74, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O74" s="5">
+        <f>VLOOKUP($A74, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>7852.81568627451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -5825,8 +8650,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="5">
+        <f>VLOOKUP($A75, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>263</v>
+      </c>
+      <c r="M75" s="5">
+        <f>VLOOKUP($A75, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>770.37647058823529</v>
+      </c>
+      <c r="N75" s="5">
+        <f>VLOOKUP($A75, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3738</v>
+      </c>
+      <c r="O75" s="5">
+        <f>VLOOKUP($A75, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>9884.3450980392154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>309</v>
       </c>
@@ -5860,8 +8701,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="5">
+        <f>VLOOKUP($A76, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1832</v>
+      </c>
+      <c r="M76" s="5">
+        <f>VLOOKUP($A76, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5433.6549019607846</v>
+      </c>
+      <c r="N76" s="5">
+        <f>VLOOKUP($A76, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <f>VLOOKUP($A76, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>68452.074509803919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>500</v>
       </c>
@@ -5895,8 +8752,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="5">
+        <f>VLOOKUP($A77, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1931</v>
+      </c>
+      <c r="M77" s="5">
+        <f>VLOOKUP($A77, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6732.0980392156862</v>
+      </c>
+      <c r="N77" s="5">
+        <f>VLOOKUP($A77, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>36977</v>
+      </c>
+      <c r="O77" s="5">
+        <f>VLOOKUP($A77, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>135955.0745098039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -5930,8 +8803,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="5">
+        <f>VLOOKUP($A78, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>652</v>
+      </c>
+      <c r="M78" s="5">
+        <f>VLOOKUP($A78, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2748.2392156862738</v>
+      </c>
+      <c r="N78" s="5">
+        <f>VLOOKUP($A78, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>26137</v>
+      </c>
+      <c r="O78" s="5">
+        <f>VLOOKUP($A78, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>61535.631372549018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -5965,8 +8854,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="5">
+        <f>VLOOKUP($A79, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>368</v>
+      </c>
+      <c r="M79" s="5">
+        <f>VLOOKUP($A79, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1475.8627450980391</v>
+      </c>
+      <c r="N79" s="5">
+        <f>VLOOKUP($A79, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O79" s="5">
+        <f>VLOOKUP($A79, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>15349.10588235294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -6000,8 +8905,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6035,8 +8944,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="5">
+        <f>VLOOKUP($A81, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3328</v>
+      </c>
+      <c r="M81" s="5">
+        <f>VLOOKUP($A81, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8099.8549019607844</v>
+      </c>
+      <c r="N81" s="5">
+        <f>VLOOKUP($A81, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="O81" s="5">
+        <f>VLOOKUP($A81, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>103976.8901960784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -6070,8 +8995,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="5">
+        <f>VLOOKUP($A82, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>828</v>
+      </c>
+      <c r="M82" s="5">
+        <f>VLOOKUP($A82, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1930.113725490196</v>
+      </c>
+      <c r="N82" s="5">
+        <f>VLOOKUP($A82, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7727</v>
+      </c>
+      <c r="O82" s="5">
+        <f>VLOOKUP($A82, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>25049.448818897639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -6105,8 +9046,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="5">
+        <f>VLOOKUP($A83, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>982</v>
+      </c>
+      <c r="M83" s="5">
+        <f>VLOOKUP($A83, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3913.6901960784312</v>
+      </c>
+      <c r="N83" s="5">
+        <f>VLOOKUP($A83, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>18733</v>
+      </c>
+      <c r="O83" s="5">
+        <f>VLOOKUP($A83, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>59516.137254901958</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>311</v>
       </c>
@@ -6140,8 +9097,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="5">
+        <f>VLOOKUP($A84, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2373</v>
+      </c>
+      <c r="M84" s="5">
+        <f>VLOOKUP($A84, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7803</v>
+      </c>
+      <c r="N84" s="5">
+        <f>VLOOKUP($A84, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="O84" s="5">
+        <f>VLOOKUP($A84, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>129932.368627451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -6175,8 +9148,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="5">
+        <f>VLOOKUP($A85, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1698</v>
+      </c>
+      <c r="M85" s="5">
+        <f>VLOOKUP($A85, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6297.5921568627446</v>
+      </c>
+      <c r="N85" s="5">
+        <f>VLOOKUP($A85, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O85" s="5">
+        <f>VLOOKUP($A85, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>117808.7490196078</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>477</v>
       </c>
@@ -6210,8 +9199,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="5">
+        <f>VLOOKUP($A86, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>360</v>
+      </c>
+      <c r="M86" s="5">
+        <f>VLOOKUP($A86, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1168.4901960784309</v>
+      </c>
+      <c r="N86" s="5">
+        <f>VLOOKUP($A86, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>6288</v>
+      </c>
+      <c r="O86" s="5">
+        <f>VLOOKUP($A86, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>15983.956862745101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>163</v>
       </c>
@@ -6245,8 +9250,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="5">
+        <f>VLOOKUP($A87, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>393</v>
+      </c>
+      <c r="M87" s="5">
+        <f>VLOOKUP($A87, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1878.0117647058819</v>
+      </c>
+      <c r="N87" s="5">
+        <f>VLOOKUP($A87, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O87" s="5">
+        <f>VLOOKUP($A87, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>58589.184313725491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -6280,8 +9301,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="5">
+        <f>VLOOKUP($A88, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2569</v>
+      </c>
+      <c r="M88" s="5">
+        <f>VLOOKUP($A88, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>10024.82352941176</v>
+      </c>
+      <c r="N88" s="5">
+        <f>VLOOKUP($A88, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O88" s="5">
+        <f>VLOOKUP($A88, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>275704.01960784307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -6315,8 +9352,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="5">
+        <f>VLOOKUP($A89, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>932</v>
+      </c>
+      <c r="M89" s="5">
+        <f>VLOOKUP($A89, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3345.9411764705878</v>
+      </c>
+      <c r="N89" s="5">
+        <f>VLOOKUP($A89, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O89" s="5">
+        <f>VLOOKUP($A89, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>51610.345098039223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -6350,8 +9403,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -6385,8 +9442,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="5">
+        <f>VLOOKUP($A91, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>498</v>
+      </c>
+      <c r="M91" s="5">
+        <f>VLOOKUP($A91, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8362.6470588235297</v>
+      </c>
+      <c r="N91" s="5">
+        <f>VLOOKUP($A91, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>20709</v>
+      </c>
+      <c r="O91" s="5">
+        <f>VLOOKUP($A91, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>173305.2862745098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -6420,8 +9493,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="5">
+        <f>VLOOKUP($A92, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3410</v>
+      </c>
+      <c r="M92" s="5">
+        <f>VLOOKUP($A92, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8955.7921568627444</v>
+      </c>
+      <c r="N92" s="5">
+        <f>VLOOKUP($A92, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>65131</v>
+      </c>
+      <c r="O92" s="5">
+        <f>VLOOKUP($A92, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>212939.11811023619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -6455,8 +9544,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="5">
+        <f>VLOOKUP($A93, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>5900</v>
+      </c>
+      <c r="M93" s="5">
+        <f>VLOOKUP($A93, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>14335.203921568631</v>
+      </c>
+      <c r="N93" s="5">
+        <f>VLOOKUP($A93, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>96042</v>
+      </c>
+      <c r="O93" s="5">
+        <f>VLOOKUP($A93, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>249928.2470588235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -6490,8 +9595,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="5">
+        <f>VLOOKUP($A94, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>402</v>
+      </c>
+      <c r="M94" s="5">
+        <f>VLOOKUP($A94, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1187.0705882352941</v>
+      </c>
+      <c r="N94" s="5">
+        <f>VLOOKUP($A94, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O94" s="5">
+        <f>VLOOKUP($A94, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>14767.12156862745</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -6525,8 +9646,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="5">
+        <f>VLOOKUP($A95, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2499</v>
+      </c>
+      <c r="M95" s="5">
+        <f>VLOOKUP($A95, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8408.9058823529413</v>
+      </c>
+      <c r="N95" s="5">
+        <f>VLOOKUP($A95, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O95" s="5">
+        <f>VLOOKUP($A95, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>177390.83529411771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -6560,8 +9697,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="5">
+        <f>VLOOKUP($A96, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>999</v>
+      </c>
+      <c r="M96" s="5">
+        <f>VLOOKUP($A96, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2514.7921568627448</v>
+      </c>
+      <c r="N96" s="5">
+        <f>VLOOKUP($A96, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>17286</v>
+      </c>
+      <c r="O96" s="5">
+        <f>VLOOKUP($A96, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>38335.622047244091</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -6595,8 +9748,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="5">
+        <f>VLOOKUP($A97, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>400</v>
+      </c>
+      <c r="M97" s="5">
+        <f>VLOOKUP($A97, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1321.0274509803919</v>
+      </c>
+      <c r="N97" s="5">
+        <f>VLOOKUP($A97, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O97" s="5">
+        <f>VLOOKUP($A97, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>16734.407843137251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -6630,8 +9799,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="5">
+        <f>VLOOKUP($A98, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>946</v>
+      </c>
+      <c r="M98" s="5">
+        <f>VLOOKUP($A98, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3743.4</v>
+      </c>
+      <c r="N98" s="5">
+        <f>VLOOKUP($A98, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>20844</v>
+      </c>
+      <c r="O98" s="5">
+        <f>VLOOKUP($A98, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>54291.346456692911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>593</v>
       </c>
@@ -6665,8 +9850,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -6700,8 +9889,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="5">
+        <f>VLOOKUP($A100, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>319</v>
+      </c>
+      <c r="M100" s="5">
+        <f>VLOOKUP($A100, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1687.9921568627451</v>
+      </c>
+      <c r="N100" s="5">
+        <f>VLOOKUP($A100, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O100" s="5">
+        <f>VLOOKUP($A100, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>20086.098039215689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -6735,8 +9940,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="5">
+        <f>VLOOKUP($A101, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>5557</v>
+      </c>
+      <c r="M101" s="5">
+        <f>VLOOKUP($A101, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>19105.96862745098</v>
+      </c>
+      <c r="N101" s="5">
+        <f>VLOOKUP($A101, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O101" s="5">
+        <f>VLOOKUP($A101, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>376012.5294117647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -6770,8 +9991,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="5">
+        <f>VLOOKUP($A102, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1061</v>
+      </c>
+      <c r="M102" s="5">
+        <f>VLOOKUP($A102, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3440.18431372549</v>
+      </c>
+      <c r="N102" s="5">
+        <f>VLOOKUP($A102, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O102" s="5">
+        <f>VLOOKUP($A102, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>56202.109803921572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>193</v>
       </c>
@@ -6805,8 +10042,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>434</v>
       </c>
@@ -6837,8 +10078,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -6872,8 +10117,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="5">
+        <f>VLOOKUP($A105, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>313</v>
+      </c>
+      <c r="M105" s="5">
+        <f>VLOOKUP($A105, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>979.42352941176466</v>
+      </c>
+      <c r="N105" s="5">
+        <f>VLOOKUP($A105, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3617</v>
+      </c>
+      <c r="O105" s="5">
+        <f>VLOOKUP($A105, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>11854.16078431373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -6907,8 +10168,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="5">
+        <f>VLOOKUP($A106, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>406</v>
+      </c>
+      <c r="M106" s="5">
+        <f>VLOOKUP($A106, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1682.7137254901961</v>
+      </c>
+      <c r="N106" s="5">
+        <f>VLOOKUP($A106, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3275</v>
+      </c>
+      <c r="O106" s="5">
+        <f>VLOOKUP($A106, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>15199.05905511811</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -6942,8 +10219,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="5">
+        <f>VLOOKUP($A107, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1103</v>
+      </c>
+      <c r="M107" s="5">
+        <f>VLOOKUP($A107, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>6018.9882352941177</v>
+      </c>
+      <c r="N107" s="5">
+        <f>VLOOKUP($A107, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O107" s="5">
+        <f>VLOOKUP($A107, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>115061.3294117647</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>484</v>
       </c>
@@ -6977,8 +10270,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -7012,8 +10309,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>496</v>
       </c>
@@ -7047,8 +10348,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>211</v>
       </c>
@@ -7082,8 +10387,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111" s="5">
+        <f>VLOOKUP($A111, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>689</v>
+      </c>
+      <c r="M111" s="5">
+        <f>VLOOKUP($A111, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2022.1215686274511</v>
+      </c>
+      <c r="N111" s="5">
+        <f>VLOOKUP($A111, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>7657</v>
+      </c>
+      <c r="O111" s="5">
+        <f>VLOOKUP($A111, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>18167.329411764709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -7117,8 +10438,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112" s="5">
+        <f>VLOOKUP($A112, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>211</v>
+      </c>
+      <c r="M112" s="5">
+        <f>VLOOKUP($A112, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1108.8470588235291</v>
+      </c>
+      <c r="N112" s="5">
+        <f>VLOOKUP($A112, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>5783</v>
+      </c>
+      <c r="O112" s="5">
+        <f>VLOOKUP($A112, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>12871.164705882349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -7152,8 +10489,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="5">
+        <f>VLOOKUP($A113, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1741</v>
+      </c>
+      <c r="M113" s="5">
+        <f>VLOOKUP($A113, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4937.2941176470586</v>
+      </c>
+      <c r="N113" s="5">
+        <f>VLOOKUP($A113, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O113" s="5">
+        <f>VLOOKUP($A113, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>104325.0196078431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>217</v>
       </c>
@@ -7187,8 +10540,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114" s="5">
+        <f>VLOOKUP($A114, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>7293</v>
+      </c>
+      <c r="M114" s="5">
+        <f>VLOOKUP($A114, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>18799.098039215689</v>
+      </c>
+      <c r="N114" s="5">
+        <f>VLOOKUP($A114, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>123196</v>
+      </c>
+      <c r="O114" s="5">
+        <f>VLOOKUP($A114, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>408001.23137254902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -7222,8 +10591,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115" s="5">
+        <f>VLOOKUP($A115, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>553</v>
+      </c>
+      <c r="M115" s="5">
+        <f>VLOOKUP($A115, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>4384.4980392156858</v>
+      </c>
+      <c r="N115" s="5">
+        <f>VLOOKUP($A115, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>11289</v>
+      </c>
+      <c r="O115" s="5">
+        <f>VLOOKUP($A115, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>91364.847058823536</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>467</v>
       </c>
@@ -7264,8 +10649,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -7299,8 +10688,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117" s="5">
+        <f>VLOOKUP($A117, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2145</v>
+      </c>
+      <c r="M117" s="5">
+        <f>VLOOKUP($A117, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7404.9568627450981</v>
+      </c>
+      <c r="N117" s="5">
+        <f>VLOOKUP($A117, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>54363</v>
+      </c>
+      <c r="O117" s="5">
+        <f>VLOOKUP($A117, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>150530.8464566929</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>509</v>
       </c>
@@ -7334,8 +10739,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118" s="5">
+        <f>VLOOKUP($A118, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3068</v>
+      </c>
+      <c r="M118" s="5">
+        <f>VLOOKUP($A118, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>8287.0862745098038</v>
+      </c>
+      <c r="N118" s="5">
+        <f>VLOOKUP($A118, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>61324</v>
+      </c>
+      <c r="O118" s="5">
+        <f>VLOOKUP($A118, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>142742.52156862739</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>511</v>
       </c>
@@ -7369,8 +10790,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119" s="5">
+        <f>VLOOKUP($A119, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>662</v>
+      </c>
+      <c r="M119" s="5">
+        <f>VLOOKUP($A119, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1713.2156862745101</v>
+      </c>
+      <c r="N119" s="5">
+        <f>VLOOKUP($A119, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="O119" s="5">
+        <f>VLOOKUP($A119, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>18638.549019607839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -7404,8 +10841,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120" s="5">
+        <f>VLOOKUP($A120, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2238</v>
+      </c>
+      <c r="M120" s="5">
+        <f>VLOOKUP($A120, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5710.8784313725491</v>
+      </c>
+      <c r="N120" s="5">
+        <f>VLOOKUP($A120, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O120" s="5">
+        <f>VLOOKUP($A120, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>94483.784313725497</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>485</v>
       </c>
@@ -7439,8 +10892,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121" s="5">
+        <f>VLOOKUP($A121, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="M121" s="5">
+        <f>VLOOKUP($A121, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>610.51372549019607</v>
+      </c>
+      <c r="N121" s="5">
+        <f>VLOOKUP($A121, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>2324</v>
+      </c>
+      <c r="O121" s="5">
+        <f>VLOOKUP($A121, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>9101.1803921568626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>498</v>
       </c>
@@ -7474,8 +10943,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122" s="5">
+        <f>VLOOKUP($A122, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1100</v>
+      </c>
+      <c r="M122" s="5">
+        <f>VLOOKUP($A122, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>3514.4588235294118</v>
+      </c>
+      <c r="N122" s="5">
+        <f>VLOOKUP($A122, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>15419</v>
+      </c>
+      <c r="O122" s="5">
+        <f>VLOOKUP($A122, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>58186.011811023622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -7509,8 +10994,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123" s="5">
+        <f>VLOOKUP($A123, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>3010</v>
+      </c>
+      <c r="M123" s="5">
+        <f>VLOOKUP($A123, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>9074.176470588236</v>
+      </c>
+      <c r="N123" s="5">
+        <f>VLOOKUP($A123, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>50153</v>
+      </c>
+      <c r="O123" s="5">
+        <f>VLOOKUP($A123, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>165594.29921259839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -7544,8 +11045,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="5">
+        <f>VLOOKUP($A124, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>2460</v>
+      </c>
+      <c r="M124" s="5">
+        <f>VLOOKUP($A124, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>7384.3882352941173</v>
+      </c>
+      <c r="N124" s="5">
+        <f>VLOOKUP($A124, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="O124" s="5">
+        <f>VLOOKUP($A124, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>128829.9725490196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -7579,8 +11096,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="5">
+        <f>VLOOKUP($A125, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>599</v>
+      </c>
+      <c r="M125" s="5">
+        <f>VLOOKUP($A125, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>1308.1372549019609</v>
+      </c>
+      <c r="N125" s="5">
+        <f>VLOOKUP($A125, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="O125" s="5">
+        <f>VLOOKUP($A125, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>13522.603921568631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>501</v>
       </c>
@@ -7614,8 +11147,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="5">
+        <f>VLOOKUP($A126, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>1826</v>
+      </c>
+      <c r="M126" s="5">
+        <f>VLOOKUP($A126, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>5758.1725490196077</v>
+      </c>
+      <c r="N126" s="5">
+        <f>VLOOKUP($A126, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>44675</v>
+      </c>
+      <c r="O126" s="5">
+        <f>VLOOKUP($A126, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>111055.9606299213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -7649,8 +11198,24 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127" s="5">
+        <f>VLOOKUP($A127, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>269</v>
+      </c>
+      <c r="M127" s="5">
+        <f>VLOOKUP($A127, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>932.72549019607845</v>
+      </c>
+      <c r="N127" s="5">
+        <f>VLOOKUP($A127, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>3949</v>
+      </c>
+      <c r="O127" s="5">
+        <f>VLOOKUP($A127, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>11291.015748031499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -7680,19 +11245,29 @@
       <c r="H128">
         <v>255</v>
       </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="s">
-        <v>612</v>
-      </c>
       <c r="K128" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L128" s="5">
+        <f>VLOOKUP($A128, [1]isins!$A:$E, 2, FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="M128" s="5">
+        <f>VLOOKUP($A128, [1]isins!$A:$E, 3, FALSE)</f>
+        <v>2547.0196078431368</v>
+      </c>
+      <c r="N128" s="5">
+        <f>VLOOKUP($A128, [1]isins!$A:$E, 4, FALSE)</f>
+        <v>4636</v>
+      </c>
+      <c r="O128" s="5">
+        <f>VLOOKUP($A128, [1]isins!$A:$E, 5, FALSE)</f>
+        <v>39846.311023622053</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K128" xr:uid="{FBDCA13C-E3C5-A942-8B40-3B53C89E888D}"/>
+  <autoFilter ref="A1:O128" xr:uid="{FBDCA13C-E3C5-A942-8B40-3B53C89E888D}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",A1)))</formula>
@@ -7713,7 +11288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:N1 K1:K1048576">
+  <conditionalFormatting sqref="K1:K1048576 L1:O1">
     <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",K1)))</formula>
     </cfRule>
